--- a/results/mp/logistic/corona/confidence/168/stop-words-desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,81 +40,111 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
+    <t>prices</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -124,163 +154,181 @@
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>united</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>security</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>data</t>
@@ -289,37 +337,25 @@
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>staff</t>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shop</t>
+    <t>local</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -677,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +721,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,13 +782,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -764,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -788,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -796,13 +832,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8275862068965517</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -838,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -846,13 +882,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8253424657534246</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -864,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -896,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.9333333333333333</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -946,13 +982,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -964,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -988,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -996,13 +1032,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1014,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1038,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1046,13 +1082,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1064,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1088,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1096,13 +1132,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1114,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.9033942558746736</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L10">
-        <v>346</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>346</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1138,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1146,13 +1182,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5882352941176471</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1164,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1188,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1196,13 +1232,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5767195767195767</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C12">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1214,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1238,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1246,13 +1282,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5652173913043478</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1267,16 +1303,16 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.8867924528301887</v>
+        <v>0.890625</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1288,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1296,13 +1332,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5484496124031008</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="C14">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="D14">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1314,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.8802816901408451</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1338,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1346,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5294117647058824</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1364,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.8793103448275862</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1388,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1396,13 +1432,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4745762711864407</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1414,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.8787878787878788</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1438,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1446,13 +1482,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1464,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.8671875</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1488,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1496,13 +1532,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3333333333333333</v>
+        <v>0.5658914728682171</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1514,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K18">
         <v>0.8604651162790697</v>
@@ -1546,13 +1582,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3333333333333333</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1564,28 +1600,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.85625</v>
+        <v>0.8553459119496856</v>
       </c>
       <c r="L19">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M19">
         <v>137</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>23</v>
@@ -1596,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.325</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1614,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.8421052631578947</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1638,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1646,13 +1682,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3154362416107382</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C21">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1664,19 +1700,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.8421052631578947</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1688,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1696,13 +1732,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.25</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1714,19 +1750,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.8414634146341463</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L22">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="M22">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1738,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1746,13 +1782,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1666666666666667</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1764,19 +1800,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1788,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1796,13 +1832,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1666666666666667</v>
+        <v>0.40625</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1814,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.825</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1838,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1846,13 +1882,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.08579088471849866</v>
+        <v>0.4</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1864,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>341</v>
+        <v>33</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K25">
         <v>0.8181818181818182</v>
@@ -1896,13 +1932,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.05333333333333334</v>
+        <v>0.35</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1914,19 +1950,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.8148148148148148</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1938,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1946,37 +1982,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.008704061895551257</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3075</v>
+        <v>98</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.8095238095238095</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L27">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1988,428 +2024,668 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>37</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.78</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L28">
+        <v>15</v>
+      </c>
+      <c r="M28">
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.3066666666666666</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>52</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L29">
+        <v>21</v>
+      </c>
+      <c r="M29">
+        <v>21</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>41</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="L30">
+        <v>17</v>
+      </c>
+      <c r="M30">
+        <v>17</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>70</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.1468253968253968</v>
+      </c>
+      <c r="C32">
+        <v>37</v>
+      </c>
+      <c r="D32">
+        <v>37</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>215</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32">
+        <v>0.7323529411764705</v>
+      </c>
+      <c r="L32">
+        <v>249</v>
+      </c>
+      <c r="M32">
+        <v>249</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.08310991957104558</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>342</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33">
+        <v>0.725</v>
+      </c>
+      <c r="L33">
+        <v>29</v>
+      </c>
+      <c r="M33">
+        <v>29</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M28">
-        <v>39</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="L29">
+      <c r="B34">
+        <v>0.01382886776145203</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>0.2</v>
+      </c>
+      <c r="F34">
+        <v>0.8</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1141</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L34">
+        <v>13</v>
+      </c>
+      <c r="M34">
+        <v>13</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.01360103626943005</v>
+      </c>
+      <c r="C35">
+        <v>42</v>
+      </c>
+      <c r="D35">
+        <v>61</v>
+      </c>
+      <c r="E35">
+        <v>0.31</v>
+      </c>
+      <c r="F35">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>3046</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35">
+        <v>0.7084745762711865</v>
+      </c>
+      <c r="L35">
+        <v>209</v>
+      </c>
+      <c r="M35">
+        <v>209</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.01224682053697598</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>46</v>
+      </c>
+      <c r="E36">
+        <v>0.43</v>
+      </c>
+      <c r="F36">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2097</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L36">
         <v>17</v>
       </c>
-      <c r="M29">
+      <c r="M36">
         <v>17</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K30">
-        <v>0.7708333333333334</v>
-      </c>
-      <c r="L30">
-        <v>37</v>
-      </c>
-      <c r="M30">
-        <v>37</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31">
-        <v>0.75</v>
-      </c>
-      <c r="L31">
-        <v>21</v>
-      </c>
-      <c r="M31">
-        <v>21</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32">
-        <v>0.75</v>
-      </c>
-      <c r="L32">
-        <v>18</v>
-      </c>
-      <c r="M32">
-        <v>18</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.004445855827246745</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>66</v>
+      </c>
+      <c r="E37">
+        <v>0.79</v>
+      </c>
+      <c r="F37">
+        <v>0.21</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>3135</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38">
+        <v>0.7</v>
+      </c>
+      <c r="L38">
+        <v>35</v>
+      </c>
+      <c r="M38">
+        <v>35</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39">
+        <v>0.6861924686192469</v>
+      </c>
+      <c r="L39">
+        <v>164</v>
+      </c>
+      <c r="M39">
+        <v>164</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L40">
+        <v>13</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K41">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L41">
         <v>64</v>
       </c>
-      <c r="K33">
-        <v>0.75</v>
-      </c>
-      <c r="L33">
-        <v>21</v>
-      </c>
-      <c r="M33">
-        <v>21</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="L34">
-        <v>26</v>
-      </c>
-      <c r="M34">
-        <v>26</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="M41">
+        <v>64</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L42">
+        <v>19</v>
+      </c>
+      <c r="M42">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35">
-        <v>0.7235294117647059</v>
-      </c>
-      <c r="L35">
-        <v>246</v>
-      </c>
-      <c r="M35">
-        <v>246</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K36">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="L36">
-        <v>68</v>
-      </c>
-      <c r="M36">
-        <v>68</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K37">
-        <v>0.7220338983050848</v>
-      </c>
-      <c r="L37">
-        <v>213</v>
-      </c>
-      <c r="M37">
-        <v>213</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K38">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L38">
-        <v>20</v>
-      </c>
-      <c r="M38">
-        <v>20</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L43">
+        <v>15</v>
+      </c>
+      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K39">
-        <v>0.7071129707112971</v>
-      </c>
-      <c r="L39">
-        <v>169</v>
-      </c>
-      <c r="M39">
-        <v>169</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K40">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L40">
-        <v>23</v>
-      </c>
-      <c r="M40">
-        <v>23</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K41">
-        <v>0.676923076923077</v>
-      </c>
-      <c r="L41">
-        <v>44</v>
-      </c>
-      <c r="M41">
-        <v>44</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K42">
-        <v>0.6741573033707865</v>
-      </c>
-      <c r="L42">
-        <v>60</v>
-      </c>
-      <c r="M42">
-        <v>60</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K43">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L43">
-        <v>46</v>
-      </c>
-      <c r="M43">
-        <v>46</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
+    <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K44">
         <v>0.6296296296296297</v>
@@ -2433,18 +2709,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="10:17">
+    <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K45">
-        <v>0.625</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2456,21 +2732,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K46">
-        <v>0.6086956521739131</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2482,21 +2758,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K47">
-        <v>0.6086956521739131</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2508,21 +2784,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K48">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2534,21 +2810,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K49">
-        <v>0.5769230769230769</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2560,21 +2836,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K50">
-        <v>0.5616438356164384</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L50">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M50">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2586,21 +2862,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K51">
-        <v>0.5555555555555556</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2612,21 +2888,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K52">
-        <v>0.5357142857142857</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2638,21 +2914,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K53">
-        <v>0.5294117647058824</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2664,21 +2940,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K54">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2690,21 +2966,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K55">
         <v>0.5</v>
       </c>
       <c r="L55">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2716,12 +2992,12 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K56">
         <v>0.4761904761904762</v>
@@ -2747,16 +3023,16 @@
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K57">
-        <v>0.4516129032258064</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2768,21 +3044,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K58">
-        <v>0.4035087719298245</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2794,21 +3070,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K59">
-        <v>0.3770491803278688</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L59">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2820,21 +3096,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K60">
-        <v>0.3389830508474576</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2846,21 +3122,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K61">
-        <v>0.296875</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2872,21 +3148,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="K62">
-        <v>0.1944444444444444</v>
+        <v>0.328125</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2898,41 +3174,41 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K63">
-        <v>0.1682242990654206</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M63">
         <v>20</v>
       </c>
       <c r="N63">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K64">
-        <v>0.134020618556701</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="L64">
         <v>13</v>
@@ -2950,21 +3226,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="K65">
-        <v>0.1048951048951049</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2976,41 +3252,41 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K66">
-        <v>0.1</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L66">
         <v>13</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N66">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="K67">
-        <v>0.07065217391304347</v>
+        <v>0.1</v>
       </c>
       <c r="L67">
         <v>13</v>
@@ -3028,21 +3304,21 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>171</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K68">
-        <v>0.06818181818181818</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3054,59 +3330,189 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>287</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K69">
-        <v>0.0360576923076923</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L69">
         <v>15</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>401</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K70">
-        <v>0.01003449357165256</v>
+        <v>0.0488599348534202</v>
       </c>
       <c r="L70">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N70">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O70">
-        <v>0.27</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>3157</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K71">
+        <v>0.02786377708978328</v>
+      </c>
+      <c r="L71">
+        <v>18</v>
+      </c>
+      <c r="M71">
+        <v>22</v>
+      </c>
+      <c r="N71">
+        <v>0.82</v>
+      </c>
+      <c r="O71">
+        <v>0.18</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K72">
+        <v>0.01886792452830189</v>
+      </c>
+      <c r="L72">
+        <v>17</v>
+      </c>
+      <c r="M72">
+        <v>17</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>0.01631628490743646</v>
+      </c>
+      <c r="L73">
+        <v>52</v>
+      </c>
+      <c r="M73">
+        <v>66</v>
+      </c>
+      <c r="N73">
+        <v>0.79</v>
+      </c>
+      <c r="O73">
+        <v>0.21</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K74">
+        <v>0.00944733112895607</v>
+      </c>
+      <c r="L74">
+        <v>20</v>
+      </c>
+      <c r="M74">
+        <v>46</v>
+      </c>
+      <c r="N74">
+        <v>0.43</v>
+      </c>
+      <c r="O74">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K75">
+        <v>0.006199021207177814</v>
+      </c>
+      <c r="L75">
+        <v>19</v>
+      </c>
+      <c r="M75">
+        <v>61</v>
+      </c>
+      <c r="N75">
+        <v>0.31</v>
+      </c>
+      <c r="O75">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>3046</v>
       </c>
     </row>
   </sheetData>
